--- a/Documents/Plant Material Regression 1.xlsx
+++ b/Documents/Plant Material Regression 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Cup</t>
   </si>
@@ -210,6 +210,51 @@
   </si>
   <si>
     <t>"Wet" Plant Wt</t>
+  </si>
+  <si>
+    <t>Cup + "Dry" Plant Wt</t>
+  </si>
+  <si>
+    <t>"Dry" Plant Wt</t>
+  </si>
+  <si>
+    <t>0.6570</t>
+  </si>
+  <si>
+    <t>0.6609</t>
+  </si>
+  <si>
+    <t>0.7311</t>
+  </si>
+  <si>
+    <t>0.6868</t>
+  </si>
+  <si>
+    <t>0.4858</t>
+  </si>
+  <si>
+    <t>0.5073</t>
+  </si>
+  <si>
+    <t>0.4278</t>
+  </si>
+  <si>
+    <t>06231</t>
+  </si>
+  <si>
+    <t>0.5500</t>
+  </si>
+  <si>
+    <t>0.5971</t>
+  </si>
+  <si>
+    <t>0.5622</t>
+  </si>
+  <si>
+    <t>0.6396</t>
+  </si>
+  <si>
+    <t>0.7138</t>
   </si>
 </sst>
 </file>
@@ -602,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,9 +659,11 @@
     <col min="2" max="2" width="14.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +676,14 @@
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -644,8 +697,15 @@
         <f>C2-B2</f>
         <v>0.19840000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2-B2</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -659,8 +719,15 @@
         <f t="shared" ref="D3:D26" si="0">C3-B3</f>
         <v>0.35150000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <v>0.7258</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F26" si="1">E3-B3</f>
+        <v>7.1200000000000041E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -674,8 +741,15 @@
         <f t="shared" si="0"/>
         <v>0.26590000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>7.0799999999999974E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -689,8 +763,15 @@
         <f t="shared" si="0"/>
         <v>0.28720000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1899999999999964E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -704,8 +785,15 @@
         <f t="shared" si="0"/>
         <v>0.22150000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>8.7899999999999978E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -719,8 +807,15 @@
         <f t="shared" si="0"/>
         <v>0.52800000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>0.5524</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12880000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -734,8 +829,15 @@
         <f t="shared" si="0"/>
         <v>0.50319999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.11210000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -749,8 +851,15 @@
         <f t="shared" si="0"/>
         <v>0.42749999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8999999999999977E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -764,8 +873,15 @@
         <f t="shared" si="0"/>
         <v>0.43359999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4400000000000022E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -779,8 +895,15 @@
         <f t="shared" si="0"/>
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12450000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -794,8 +917,15 @@
         <f t="shared" si="0"/>
         <v>0.72059999999999991</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>1.0044999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>9.9299999999999944E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -809,8 +939,15 @@
         <f t="shared" si="0"/>
         <v>0.72029999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>0.69940000000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10489999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -824,8 +961,15 @@
         <f t="shared" si="0"/>
         <v>0.8508</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16880000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -839,8 +983,15 @@
         <f t="shared" si="0"/>
         <v>0.70820000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -854,8 +1005,15 @@
         <f t="shared" si="0"/>
         <v>0.63569999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -869,8 +1027,15 @@
         <f t="shared" si="0"/>
         <v>0.86070000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32989999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -884,8 +1049,15 @@
         <f t="shared" si="0"/>
         <v>0.83379999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.5200000000000027E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -899,8 +1071,15 @@
         <f t="shared" si="0"/>
         <v>0.96449999999999991</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.11809999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -914,8 +1093,15 @@
         <f t="shared" si="0"/>
         <v>0.93209999999999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -929,8 +1115,15 @@
         <f t="shared" si="0"/>
         <v>0.79610000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>6230.5329000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -944,8 +1137,15 @@
         <f t="shared" si="0"/>
         <v>1.2649000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16850000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -959,8 +1159,15 @@
         <f t="shared" si="0"/>
         <v>1.1745000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15929999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -974,8 +1181,15 @@
         <f t="shared" si="0"/>
         <v>1.2541</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18960000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -989,8 +1203,15 @@
         <f t="shared" si="0"/>
         <v>1.3893</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19309999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1003,6 +1224,13 @@
       <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>1.3542999999999998</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17210000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Plant Material Regression 1.xlsx
+++ b/Documents/Plant Material Regression 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Cup</t>
   </si>
@@ -239,9 +239,6 @@
     <t>0.4278</t>
   </si>
   <si>
-    <t>06231</t>
-  </si>
-  <si>
     <t>0.5500</t>
   </si>
   <si>
@@ -255,13 +252,34 @@
   </si>
   <si>
     <t>0.7138</t>
+  </si>
+  <si>
+    <t>0.6231</t>
+  </si>
+  <si>
+    <t>Cup + Wet Plant Wt</t>
+  </si>
+  <si>
+    <t>Dry Wt 1</t>
+  </si>
+  <si>
+    <t>Dry Wt 2</t>
+  </si>
+  <si>
+    <t>Dry Wt 3</t>
+  </si>
+  <si>
+    <t>Dry Wt 4</t>
+  </si>
+  <si>
+    <t>Dry Wt 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +295,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,11 +335,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +372,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +705,13 @@
     <col min="4" max="4" width="19.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="15" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +730,32 @@
       <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -704,8 +776,16 @@
         <f>E2-B2</f>
         <v>5.5499999999999994E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +806,16 @@
         <f t="shared" ref="F3:F26" si="1">E3-B3</f>
         <v>7.1200000000000041E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -748,8 +836,16 @@
         <f t="shared" si="1"/>
         <v>7.0799999999999974E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -770,8 +866,16 @@
         <f t="shared" si="1"/>
         <v>7.1899999999999964E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -792,8 +896,16 @@
         <f t="shared" si="1"/>
         <v>8.7899999999999978E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -814,8 +926,16 @@
         <f t="shared" si="1"/>
         <v>0.12880000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -836,8 +956,16 @@
         <f t="shared" si="1"/>
         <v>0.11210000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -858,8 +986,16 @@
         <f t="shared" si="1"/>
         <v>9.8999999999999977E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -880,8 +1016,16 @@
         <f t="shared" si="1"/>
         <v>7.4400000000000022E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -902,8 +1046,16 @@
         <f t="shared" si="1"/>
         <v>0.12450000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -924,8 +1076,16 @@
         <f t="shared" si="1"/>
         <v>9.9299999999999944E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -946,8 +1106,16 @@
         <f t="shared" si="1"/>
         <v>0.10489999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -968,8 +1136,16 @@
         <f t="shared" si="1"/>
         <v>0.16880000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -990,8 +1166,16 @@
         <f t="shared" si="1"/>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1012,8 +1196,16 @@
         <f t="shared" si="1"/>
         <v>0.1462</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1034,8 +1226,16 @@
         <f t="shared" si="1"/>
         <v>0.32989999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1056,8 +1256,16 @@
         <f t="shared" si="1"/>
         <v>-5.5200000000000027E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1078,8 +1286,16 @@
         <f t="shared" si="1"/>
         <v>0.11809999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1100,8 +1316,16 @@
         <f t="shared" si="1"/>
         <v>0.1235</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1116,14 +1340,22 @@
         <v>0.79610000000000003</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>6230.5329000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15599999999999997</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1138,14 +1370,22 @@
         <v>1.2649000000000001</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>0.16850000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1160,14 +1400,22 @@
         <v>1.1745000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>0.15929999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1182,14 +1430,22 @@
         <v>1.2541</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>0.18960000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1204,14 +1460,22 @@
         <v>1.3893</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>0.19309999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1226,12 +1490,20 @@
         <v>1.3542999999999998</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>0.17210000000000003</v>
       </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
